--- a/dataanalysis/data/predictions/1200/08251134_1135.xlsx
+++ b/dataanalysis/data/predictions/1200/08251134_1135.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="174">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-25</t>
   </si>
   <si>
@@ -533,12 +536,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -896,13 +893,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AI92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,19 +1002,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300033</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>0.46</v>
@@ -1035,7 +1035,7 @@
         <v>678139.08</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K2">
         <v>6</v>
@@ -1076,8 +1076,23 @@
       <c r="W2">
         <v>0.02</v>
       </c>
+      <c r="X2">
+        <v>0.92</v>
+      </c>
+      <c r="Y2">
+        <v>412.81</v>
+      </c>
+      <c r="Z2">
+        <v>2.52</v>
+      </c>
       <c r="AC2" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1085,22 +1100,25 @@
       <c r="AG2">
         <v>7.356525421142578</v>
       </c>
-      <c r="AH2" t="s">
-        <v>173</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300047</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>1.85</v>
@@ -1118,7 +1136,7 @@
         <v>138474.51</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -1159,8 +1177,23 @@
       <c r="W3">
         <v>-0.31</v>
       </c>
+      <c r="X3">
+        <v>0.77</v>
+      </c>
+      <c r="Y3">
+        <v>21.28</v>
+      </c>
+      <c r="Z3">
+        <v>10.66</v>
+      </c>
       <c r="AC3" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1168,22 +1201,25 @@
       <c r="AG3">
         <v>0.7894254922866821</v>
       </c>
-      <c r="AH3" t="s">
-        <v>173</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300049</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-2.07</v>
@@ -1201,7 +1237,7 @@
         <v>90456.03999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K4">
         <v>13</v>
@@ -1242,8 +1278,23 @@
       <c r="W4">
         <v>-0.45</v>
       </c>
+      <c r="X4">
+        <v>-4.07</v>
+      </c>
+      <c r="Y4">
+        <v>63.57</v>
+      </c>
+      <c r="Z4">
+        <v>0.92</v>
+      </c>
       <c r="AC4" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1251,22 +1302,25 @@
       <c r="AG4">
         <v>0.9965803623199463</v>
       </c>
-      <c r="AH4" t="s">
-        <v>173</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>5.69</v>
@@ -1284,7 +1338,7 @@
         <v>225219.28</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K5">
         <v>13</v>
@@ -1325,8 +1379,23 @@
       <c r="W5">
         <v>-3.37</v>
       </c>
+      <c r="X5">
+        <v>-6.14</v>
+      </c>
+      <c r="Y5">
+        <v>8.68</v>
+      </c>
+      <c r="Z5">
+        <v>-2.69</v>
+      </c>
       <c r="AC5" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1334,22 +1403,25 @@
       <c r="AG5">
         <v>3.45324969291687</v>
       </c>
-      <c r="AH5" t="s">
-        <v>173</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300113</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-1.32</v>
@@ -1367,7 +1439,7 @@
         <v>182934.27</v>
       </c>
       <c r="J6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1408,8 +1480,23 @@
       <c r="W6">
         <v>-1.9</v>
       </c>
+      <c r="X6">
+        <v>-0.42</v>
+      </c>
+      <c r="Y6">
+        <v>29.33</v>
+      </c>
+      <c r="Z6">
+        <v>9.109999999999999</v>
+      </c>
       <c r="AC6" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1417,22 +1504,25 @@
       <c r="AG6">
         <v>-0.6558520793914795</v>
       </c>
-      <c r="AH6" t="s">
-        <v>173</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300158</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>7.76</v>
@@ -1450,7 +1540,7 @@
         <v>84575.87</v>
       </c>
       <c r="J7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K7">
         <v>24</v>
@@ -1491,8 +1581,23 @@
       <c r="W7">
         <v>0.57</v>
       </c>
+      <c r="X7">
+        <v>5.12</v>
+      </c>
+      <c r="Y7">
+        <v>10.27</v>
+      </c>
+      <c r="Z7">
+        <v>13.73</v>
+      </c>
       <c r="AC7" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1500,22 +1605,25 @@
       <c r="AG7">
         <v>-6.968657493591309</v>
       </c>
-      <c r="AH7" t="s">
-        <v>173</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300184</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-2.03</v>
@@ -1533,7 +1641,7 @@
         <v>205871.97</v>
       </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K8">
         <v>5</v>
@@ -1574,8 +1682,23 @@
       <c r="W8">
         <v>-0.77</v>
       </c>
+      <c r="X8">
+        <v>-2.64</v>
+      </c>
+      <c r="Y8">
+        <v>12.56</v>
+      </c>
+      <c r="Z8">
+        <v>0.16</v>
+      </c>
       <c r="AC8" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1583,22 +1706,25 @@
       <c r="AG8">
         <v>-2.485230922698975</v>
       </c>
-      <c r="AH8" t="s">
-        <v>173</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300199</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>2.22</v>
@@ -1616,7 +1742,7 @@
         <v>247181.77</v>
       </c>
       <c r="J9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K9">
         <v>20</v>
@@ -1657,8 +1783,23 @@
       <c r="W9">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X9">
+        <v>-5.94</v>
+      </c>
+      <c r="Y9">
+        <v>28.94</v>
+      </c>
+      <c r="Z9">
+        <v>-0.03</v>
+      </c>
       <c r="AC9" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1666,22 +1807,25 @@
       <c r="AG9">
         <v>4.450299739837646</v>
       </c>
-      <c r="AH9" t="s">
-        <v>173</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300224</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>8.130000000000001</v>
@@ -1699,7 +1843,7 @@
         <v>201520.97</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K10">
         <v>13</v>
@@ -1740,8 +1884,23 @@
       <c r="W10">
         <v>0.87</v>
       </c>
+      <c r="X10">
+        <v>-5.33</v>
+      </c>
+      <c r="Y10">
+        <v>19.19</v>
+      </c>
+      <c r="Z10">
+        <v>-1.84</v>
+      </c>
       <c r="AC10" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -1749,22 +1908,25 @@
       <c r="AG10">
         <v>6.532175540924072</v>
       </c>
-      <c r="AH10" t="s">
-        <v>174</v>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300252</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>5.24</v>
@@ -1782,7 +1944,7 @@
         <v>85051.19</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K11">
         <v>6</v>
@@ -1823,8 +1985,23 @@
       <c r="W11">
         <v>1.18</v>
       </c>
+      <c r="X11">
+        <v>-3.54</v>
+      </c>
+      <c r="Y11">
+        <v>14.7</v>
+      </c>
+      <c r="Z11">
+        <v>3.09</v>
+      </c>
       <c r="AC11" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1832,22 +2009,25 @@
       <c r="AG11">
         <v>3.061967611312866</v>
       </c>
-      <c r="AH11" t="s">
-        <v>173</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300290</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>1.16</v>
@@ -1865,7 +2045,7 @@
         <v>103534.49</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -1906,8 +2086,23 @@
       <c r="W12">
         <v>0.11</v>
       </c>
+      <c r="X12">
+        <v>-3.23</v>
+      </c>
+      <c r="Y12">
+        <v>25.95</v>
+      </c>
+      <c r="Z12">
+        <v>2.33</v>
+      </c>
       <c r="AC12" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1915,22 +2110,25 @@
       <c r="AG12">
         <v>2.998114347457886</v>
       </c>
-      <c r="AH12" t="s">
-        <v>173</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300323</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-0.21</v>
@@ -1948,7 +2146,7 @@
         <v>57520.42</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1989,8 +2187,23 @@
       <c r="W13">
         <v>-0.14</v>
       </c>
+      <c r="X13">
+        <v>0.31</v>
+      </c>
+      <c r="Y13">
+        <v>10.07</v>
+      </c>
+      <c r="Z13">
+        <v>3.71</v>
+      </c>
       <c r="AC13" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1998,22 +2211,25 @@
       <c r="AG13">
         <v>4.252200603485107</v>
       </c>
-      <c r="AH13" t="s">
-        <v>173</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300324</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-1.73</v>
@@ -2031,7 +2247,7 @@
         <v>176126.64</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K14">
         <v>4</v>
@@ -2072,8 +2288,23 @@
       <c r="W14">
         <v>-1.8</v>
       </c>
+      <c r="X14">
+        <v>-3.87</v>
+      </c>
+      <c r="Y14">
+        <v>6.14</v>
+      </c>
+      <c r="Z14">
+        <v>-1.6</v>
+      </c>
       <c r="AC14" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2081,22 +2312,25 @@
       <c r="AG14">
         <v>23.9389705657959</v>
       </c>
-      <c r="AH14" t="s">
-        <v>173</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300328</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>4.58</v>
@@ -2114,7 +2348,7 @@
         <v>206620.71</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -2155,8 +2389,23 @@
       <c r="W15">
         <v>0.37</v>
       </c>
+      <c r="X15">
+        <v>-1.93</v>
+      </c>
+      <c r="Y15">
+        <v>19.78</v>
+      </c>
+      <c r="Z15">
+        <v>6.92</v>
+      </c>
       <c r="AC15" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2164,22 +2413,25 @@
       <c r="AG15">
         <v>0.8036420941352844</v>
       </c>
-      <c r="AH15" t="s">
-        <v>173</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300409</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.09</v>
@@ -2197,7 +2449,7 @@
         <v>123836.42</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -2238,8 +2490,23 @@
       <c r="W16">
         <v>0.17</v>
       </c>
+      <c r="X16">
+        <v>-3.49</v>
+      </c>
+      <c r="Y16">
+        <v>22.79</v>
+      </c>
+      <c r="Z16">
+        <v>1.29</v>
+      </c>
       <c r="AC16" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2247,22 +2514,25 @@
       <c r="AG16">
         <v>1.815749287605286</v>
       </c>
-      <c r="AH16" t="s">
-        <v>173</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300478</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-1.35</v>
@@ -2280,7 +2550,7 @@
         <v>19958.8</v>
       </c>
       <c r="J17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2321,8 +2591,23 @@
       <c r="W17">
         <v>-0.31</v>
       </c>
+      <c r="X17">
+        <v>-0.05</v>
+      </c>
+      <c r="Y17">
+        <v>20.5</v>
+      </c>
+      <c r="Z17">
+        <v>8.01</v>
+      </c>
       <c r="AC17" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2330,22 +2615,25 @@
       <c r="AG17">
         <v>-4.924700260162354</v>
       </c>
-      <c r="AH17" t="s">
-        <v>173</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300491</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>9.529999999999999</v>
@@ -2363,7 +2651,7 @@
         <v>67881.58</v>
       </c>
       <c r="J18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2404,8 +2692,23 @@
       <c r="W18">
         <v>0.43</v>
       </c>
+      <c r="X18">
+        <v>1.67</v>
+      </c>
+      <c r="Y18">
+        <v>30.84</v>
+      </c>
+      <c r="Z18">
+        <v>9.52</v>
+      </c>
       <c r="AC18" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2413,22 +2716,25 @@
       <c r="AG18">
         <v>-1.963050246238708</v>
       </c>
-      <c r="AH18" t="s">
-        <v>173</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300499</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>4.45</v>
@@ -2446,7 +2752,7 @@
         <v>218593.51</v>
       </c>
       <c r="J19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K19">
         <v>9</v>
@@ -2487,8 +2793,23 @@
       <c r="W19">
         <v>-0.09</v>
       </c>
+      <c r="X19">
+        <v>-4.25</v>
+      </c>
+      <c r="Y19">
+        <v>34.3</v>
+      </c>
+      <c r="Z19">
+        <v>2.11</v>
+      </c>
       <c r="AC19" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2496,22 +2817,25 @@
       <c r="AG19">
         <v>4.792171001434326</v>
       </c>
-      <c r="AH19" t="s">
-        <v>173</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300547</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>1.3</v>
@@ -2529,7 +2853,7 @@
         <v>108258.46</v>
       </c>
       <c r="J20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K20">
         <v>7</v>
@@ -2570,8 +2894,23 @@
       <c r="W20">
         <v>0.6899999999999999</v>
       </c>
+      <c r="X20">
+        <v>-3.5</v>
+      </c>
+      <c r="Y20">
+        <v>52.46</v>
+      </c>
+      <c r="Z20">
+        <v>3.88</v>
+      </c>
       <c r="AC20" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2579,22 +2918,25 @@
       <c r="AG20">
         <v>2.178443908691406</v>
       </c>
-      <c r="AH20" t="s">
-        <v>173</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300548</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>8.07</v>
@@ -2612,7 +2954,7 @@
         <v>209706.71</v>
       </c>
       <c r="J21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K21">
         <v>30</v>
@@ -2653,8 +2995,23 @@
       <c r="W21">
         <v>0.4</v>
       </c>
+      <c r="X21">
+        <v>2.39</v>
+      </c>
+      <c r="Y21">
+        <v>124.9</v>
+      </c>
+      <c r="Z21">
+        <v>13.57</v>
+      </c>
       <c r="AC21" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2662,22 +3019,25 @@
       <c r="AG21">
         <v>0.6788004636764526</v>
       </c>
-      <c r="AH21" t="s">
-        <v>173</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300584</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>12.31</v>
@@ -2695,7 +3055,7 @@
         <v>74072.34</v>
       </c>
       <c r="J22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K22">
         <v>10</v>
@@ -2736,8 +3096,23 @@
       <c r="W22">
         <v>1.42</v>
       </c>
+      <c r="X22">
+        <v>-1.75</v>
+      </c>
+      <c r="Y22">
+        <v>58.87</v>
+      </c>
+      <c r="Z22">
+        <v>1.01</v>
+      </c>
       <c r="AC22" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2745,22 +3120,25 @@
       <c r="AG22">
         <v>0.7022776007652283</v>
       </c>
-      <c r="AH22" t="s">
-        <v>173</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300588</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>4.43</v>
@@ -2778,7 +3156,7 @@
         <v>29854.41</v>
       </c>
       <c r="J23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2819,8 +3197,23 @@
       <c r="W23">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X23">
+        <v>-2.17</v>
+      </c>
+      <c r="Y23">
+        <v>21.8</v>
+      </c>
+      <c r="Z23">
+        <v>1.58</v>
+      </c>
       <c r="AC23" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2828,22 +3221,25 @@
       <c r="AG23">
         <v>6.92571496963501</v>
       </c>
-      <c r="AH23" t="s">
-        <v>173</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300598</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>2.76</v>
@@ -2861,7 +3257,7 @@
         <v>181212.49</v>
       </c>
       <c r="J24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -2902,8 +3298,23 @@
       <c r="W24">
         <v>0.03</v>
       </c>
+      <c r="X24">
+        <v>1.09</v>
+      </c>
+      <c r="Y24">
+        <v>62.44</v>
+      </c>
+      <c r="Z24">
+        <v>2.38</v>
+      </c>
       <c r="AC24" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2911,22 +3322,25 @@
       <c r="AG24">
         <v>-0.1215563341975212</v>
       </c>
-      <c r="AH24" t="s">
-        <v>173</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300620</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>5.45</v>
@@ -2944,7 +3358,7 @@
         <v>210585.54</v>
       </c>
       <c r="J25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K25">
         <v>10</v>
@@ -2985,8 +3399,23 @@
       <c r="W25">
         <v>0.24</v>
       </c>
+      <c r="X25">
+        <v>-3.52</v>
+      </c>
+      <c r="Y25">
+        <v>93.88</v>
+      </c>
+      <c r="Z25">
+        <v>0.23</v>
+      </c>
       <c r="AC25" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2994,22 +3423,25 @@
       <c r="AG25">
         <v>-2.08269214630127</v>
       </c>
-      <c r="AH25" t="s">
-        <v>173</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300631</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>2.43</v>
@@ -3027,7 +3459,7 @@
         <v>68890.71000000001</v>
       </c>
       <c r="J26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -3068,8 +3500,23 @@
       <c r="W26">
         <v>0.33</v>
       </c>
+      <c r="X26">
+        <v>-4.42</v>
+      </c>
+      <c r="Y26">
+        <v>36.29</v>
+      </c>
+      <c r="Z26">
+        <v>1.31</v>
+      </c>
       <c r="AC26" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3077,22 +3524,25 @@
       <c r="AG26">
         <v>8.643576622009277</v>
       </c>
-      <c r="AH26" t="s">
-        <v>173</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300642</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>6.47</v>
@@ -3110,7 +3560,7 @@
         <v>46213.28</v>
       </c>
       <c r="J27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K27">
         <v>5</v>
@@ -3151,8 +3601,23 @@
       <c r="W27">
         <v>1.52</v>
       </c>
+      <c r="X27">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="Y27">
+        <v>32.8</v>
+      </c>
+      <c r="Z27">
+        <v>18.63</v>
+      </c>
       <c r="AC27" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3160,22 +3625,25 @@
       <c r="AG27">
         <v>2.086520195007324</v>
       </c>
-      <c r="AH27" t="s">
-        <v>173</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300683</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>14.91</v>
@@ -3193,7 +3661,7 @@
         <v>54557.61</v>
       </c>
       <c r="J28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -3234,8 +3702,23 @@
       <c r="W28">
         <v>0.59</v>
       </c>
+      <c r="X28">
+        <v>-7.32</v>
+      </c>
+      <c r="Y28">
+        <v>61.76</v>
+      </c>
+      <c r="Z28">
+        <v>8.56</v>
+      </c>
       <c r="AC28" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3243,22 +3726,25 @@
       <c r="AG28">
         <v>4.354618072509766</v>
       </c>
-      <c r="AH28" t="s">
-        <v>173</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300686</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-3.45</v>
@@ -3276,7 +3762,7 @@
         <v>35379.45</v>
       </c>
       <c r="J29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -3317,8 +3803,23 @@
       <c r="W29">
         <v>-0.31</v>
       </c>
+      <c r="X29">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="Y29">
+        <v>14.45</v>
+      </c>
+      <c r="Z29">
+        <v>12.19</v>
+      </c>
       <c r="AC29" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3326,22 +3827,25 @@
       <c r="AG29">
         <v>-8.690261840820312</v>
       </c>
-      <c r="AH29" t="s">
-        <v>173</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300701</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>0.4</v>
@@ -3359,7 +3863,7 @@
         <v>28749.16</v>
       </c>
       <c r="J30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -3400,8 +3904,23 @@
       <c r="W30">
         <v>-0.18</v>
       </c>
+      <c r="X30">
+        <v>1.18</v>
+      </c>
+      <c r="Y30">
+        <v>13.48</v>
+      </c>
+      <c r="Z30">
+        <v>6.98</v>
+      </c>
       <c r="AC30" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3409,22 +3928,25 @@
       <c r="AG30">
         <v>2.991064786911011</v>
       </c>
-      <c r="AH30" t="s">
-        <v>173</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300724</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>5.74</v>
@@ -3442,7 +3964,7 @@
         <v>180919.72</v>
       </c>
       <c r="J31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -3483,8 +4005,23 @@
       <c r="W31">
         <v>0.06</v>
       </c>
+      <c r="X31">
+        <v>3.22</v>
+      </c>
+      <c r="Y31">
+        <v>89.98</v>
+      </c>
+      <c r="Z31">
+        <v>9.99</v>
+      </c>
       <c r="AC31" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3492,22 +4029,25 @@
       <c r="AG31">
         <v>4.554206371307373</v>
       </c>
-      <c r="AH31" t="s">
-        <v>173</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300727</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>5.42</v>
@@ -3525,7 +4065,7 @@
         <v>64295.09</v>
       </c>
       <c r="J32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K32">
         <v>7</v>
@@ -3566,8 +4106,23 @@
       <c r="W32">
         <v>1.06</v>
       </c>
+      <c r="X32">
+        <v>-2.5</v>
+      </c>
+      <c r="Y32">
+        <v>39.85</v>
+      </c>
+      <c r="Z32">
+        <v>-0.6</v>
+      </c>
       <c r="AC32" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -3575,22 +4130,25 @@
       <c r="AG32">
         <v>7.765848636627197</v>
       </c>
-      <c r="AH32" t="s">
-        <v>174</v>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300730</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-4.55</v>
@@ -3608,7 +4166,7 @@
         <v>115389.8</v>
       </c>
       <c r="J33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K33">
         <v>6</v>
@@ -3649,8 +4207,23 @@
       <c r="W33">
         <v>-1.26</v>
       </c>
+      <c r="X33">
+        <v>-0.67</v>
+      </c>
+      <c r="Y33">
+        <v>22.87</v>
+      </c>
+      <c r="Z33">
+        <v>1.02</v>
+      </c>
       <c r="AC33" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3658,22 +4231,25 @@
       <c r="AG33">
         <v>1.121631860733032</v>
       </c>
-      <c r="AH33" t="s">
-        <v>173</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300740</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>6.48</v>
@@ -3691,7 +4267,7 @@
         <v>51039.79</v>
       </c>
       <c r="J34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3732,8 +4308,23 @@
       <c r="W34">
         <v>0.22</v>
       </c>
+      <c r="X34">
+        <v>10.34</v>
+      </c>
+      <c r="Y34">
+        <v>24.88</v>
+      </c>
+      <c r="Z34">
+        <v>13.87</v>
+      </c>
       <c r="AC34" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3741,22 +4332,25 @@
       <c r="AG34">
         <v>2.943361043930054</v>
       </c>
-      <c r="AH34" t="s">
-        <v>173</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300748</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>18.38</v>
@@ -3774,7 +4368,7 @@
         <v>410435.33</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K35">
         <v>32</v>
@@ -3815,8 +4409,23 @@
       <c r="W35">
         <v>1.39</v>
       </c>
+      <c r="X35">
+        <v>2.86</v>
+      </c>
+      <c r="Y35">
+        <v>39.48</v>
+      </c>
+      <c r="Z35">
+        <v>10.06</v>
+      </c>
       <c r="AC35" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3824,22 +4433,25 @@
       <c r="AG35">
         <v>-1.078274011611938</v>
       </c>
-      <c r="AH35" t="s">
-        <v>173</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300752</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>1.71</v>
@@ -3857,7 +4469,7 @@
         <v>46506.15</v>
       </c>
       <c r="J36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -3898,8 +4510,23 @@
       <c r="W36">
         <v>1.53</v>
       </c>
+      <c r="X36">
+        <v>-2.43</v>
+      </c>
+      <c r="Y36">
+        <v>27.76</v>
+      </c>
+      <c r="Z36">
+        <v>3.93</v>
+      </c>
       <c r="AC36" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3907,22 +4534,25 @@
       <c r="AG36">
         <v>-1.203271389007568</v>
       </c>
-      <c r="AH36" t="s">
-        <v>173</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300757</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>20</v>
@@ -3940,7 +4570,7 @@
         <v>307291.83</v>
       </c>
       <c r="J37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3981,8 +4611,23 @@
       <c r="W37">
         <v>0.72</v>
       </c>
+      <c r="X37">
+        <v>-0.87</v>
+      </c>
+      <c r="Y37">
+        <v>279.3</v>
+      </c>
+      <c r="Z37">
+        <v>3.31</v>
+      </c>
       <c r="AC37" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>1</v>
@@ -3990,22 +4635,25 @@
       <c r="AG37">
         <v>11.43779373168945</v>
       </c>
-      <c r="AH37" t="s">
-        <v>174</v>
+      <c r="AH37">
+        <v>1</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300767</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-0.51</v>
@@ -4023,7 +4671,7 @@
         <v>90647.31</v>
       </c>
       <c r="J38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K38">
         <v>6</v>
@@ -4064,8 +4712,23 @@
       <c r="W38">
         <v>0.24</v>
       </c>
+      <c r="X38">
+        <v>-0.4</v>
+      </c>
+      <c r="Y38">
+        <v>26.34</v>
+      </c>
+      <c r="Z38">
+        <v>4.48</v>
+      </c>
       <c r="AC38" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4073,22 +4736,25 @@
       <c r="AG38">
         <v>2.254167556762695</v>
       </c>
-      <c r="AH38" t="s">
-        <v>173</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300803</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>6.28</v>
@@ -4106,7 +4772,7 @@
         <v>884843.52</v>
       </c>
       <c r="J39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K39">
         <v>10</v>
@@ -4147,8 +4813,23 @@
       <c r="W39">
         <v>0.02</v>
       </c>
+      <c r="X39">
+        <v>8.43</v>
+      </c>
+      <c r="Y39">
+        <v>158.58</v>
+      </c>
+      <c r="Z39">
+        <v>5.58</v>
+      </c>
       <c r="AC39" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4156,22 +4837,25 @@
       <c r="AG39">
         <v>-7.154672145843506</v>
       </c>
-      <c r="AH39" t="s">
-        <v>173</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300806</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-3.77</v>
@@ -4189,7 +4873,7 @@
         <v>54334.21</v>
       </c>
       <c r="J40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K40">
         <v>7</v>
@@ -4230,8 +4914,23 @@
       <c r="W40">
         <v>-0.9</v>
       </c>
+      <c r="X40">
+        <v>1.89</v>
+      </c>
+      <c r="Y40">
+        <v>26.87</v>
+      </c>
+      <c r="Z40">
+        <v>9.539999999999999</v>
+      </c>
       <c r="AC40" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4239,22 +4938,25 @@
       <c r="AG40">
         <v>2.499541521072388</v>
       </c>
-      <c r="AH40" t="s">
-        <v>173</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300814</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>3.89</v>
@@ -4272,7 +4974,7 @@
         <v>59212.03</v>
       </c>
       <c r="J41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K41">
         <v>6</v>
@@ -4313,8 +5015,23 @@
       <c r="W41">
         <v>0.43</v>
       </c>
+      <c r="X41">
+        <v>-2.69</v>
+      </c>
+      <c r="Y41">
+        <v>47.42</v>
+      </c>
+      <c r="Z41">
+        <v>1.56</v>
+      </c>
       <c r="AC41" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4322,22 +5039,25 @@
       <c r="AG41">
         <v>-0.3022504150867462</v>
       </c>
-      <c r="AH41" t="s">
-        <v>173</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300835</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>6.49</v>
@@ -4355,7 +5075,7 @@
         <v>50702.99</v>
       </c>
       <c r="J42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K42">
         <v>25</v>
@@ -4396,8 +5116,23 @@
       <c r="W42">
         <v>0.03</v>
       </c>
+      <c r="X42">
+        <v>-4.34</v>
+      </c>
+      <c r="Y42">
+        <v>65.8</v>
+      </c>
+      <c r="Z42">
+        <v>1.56</v>
+      </c>
       <c r="AC42" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4405,22 +5140,25 @@
       <c r="AG42">
         <v>5.702168941497803</v>
       </c>
-      <c r="AH42" t="s">
-        <v>173</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300843</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-4.43</v>
@@ -4438,7 +5176,7 @@
         <v>75495.2</v>
       </c>
       <c r="J43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K43">
         <v>7</v>
@@ -4479,8 +5217,23 @@
       <c r="W43">
         <v>-0.66</v>
       </c>
+      <c r="X43">
+        <v>-3.08</v>
+      </c>
+      <c r="Y43">
+        <v>55.98</v>
+      </c>
+      <c r="Z43">
+        <v>3.46</v>
+      </c>
       <c r="AC43" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4488,22 +5241,25 @@
       <c r="AG43">
         <v>3.648976564407349</v>
       </c>
-      <c r="AH43" t="s">
-        <v>173</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300870</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-3.9</v>
@@ -4521,7 +5277,7 @@
         <v>160194.33</v>
       </c>
       <c r="J44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K44">
         <v>9</v>
@@ -4562,8 +5318,23 @@
       <c r="W44">
         <v>-0.18</v>
       </c>
+      <c r="X44">
+        <v>-5.35</v>
+      </c>
+      <c r="Y44">
+        <v>269.6</v>
+      </c>
+      <c r="Z44">
+        <v>4.39</v>
+      </c>
       <c r="AC44" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4571,22 +5342,25 @@
       <c r="AG44">
         <v>0.3929416239261627</v>
       </c>
-      <c r="AH44" t="s">
-        <v>173</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300893</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-1.51</v>
@@ -4604,7 +5378,7 @@
         <v>22670.69</v>
       </c>
       <c r="J45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -4645,8 +5419,23 @@
       <c r="W45">
         <v>-0.3</v>
       </c>
+      <c r="X45">
+        <v>1.62</v>
+      </c>
+      <c r="Y45">
+        <v>32.58</v>
+      </c>
+      <c r="Z45">
+        <v>0.03</v>
+      </c>
       <c r="AC45" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4654,22 +5443,25 @@
       <c r="AG45">
         <v>9.273739814758301</v>
       </c>
-      <c r="AH45" t="s">
-        <v>173</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300913</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>1.69</v>
@@ -4687,7 +5479,7 @@
         <v>92446.10000000001</v>
       </c>
       <c r="J46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -4728,8 +5520,23 @@
       <c r="W46">
         <v>-0.29</v>
       </c>
+      <c r="X46">
+        <v>-3.48</v>
+      </c>
+      <c r="Y46">
+        <v>61.41</v>
+      </c>
+      <c r="Z46">
+        <v>2.97</v>
+      </c>
       <c r="AC46" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4737,22 +5544,25 @@
       <c r="AG46">
         <v>7.696415901184082</v>
       </c>
-      <c r="AH46" t="s">
-        <v>173</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300991</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>14.63</v>
@@ -4770,7 +5580,7 @@
         <v>89618.67</v>
       </c>
       <c r="J47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4811,8 +5621,23 @@
       <c r="W47">
         <v>1.66</v>
       </c>
+      <c r="X47">
+        <v>-3</v>
+      </c>
+      <c r="Y47">
+        <v>44.99</v>
+      </c>
+      <c r="Z47">
+        <v>3.28</v>
+      </c>
       <c r="AC47" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4820,22 +5645,25 @@
       <c r="AG47">
         <v>-14.20611381530762</v>
       </c>
-      <c r="AH47" t="s">
-        <v>173</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301002</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>0.46</v>
@@ -4853,7 +5681,7 @@
         <v>22367.91</v>
       </c>
       <c r="J48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -4894,8 +5722,23 @@
       <c r="W48">
         <v>0.83</v>
       </c>
+      <c r="X48">
+        <v>1.23</v>
+      </c>
+      <c r="Y48">
+        <v>34.25</v>
+      </c>
+      <c r="Z48">
+        <v>10.99</v>
+      </c>
       <c r="AC48" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4903,22 +5746,25 @@
       <c r="AG48">
         <v>3.786628007888794</v>
       </c>
-      <c r="AH48" t="s">
-        <v>173</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301018</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>2.65</v>
@@ -4936,7 +5782,7 @@
         <v>103956.49</v>
       </c>
       <c r="J49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K49">
         <v>9</v>
@@ -4977,8 +5823,23 @@
       <c r="W49">
         <v>0.77</v>
       </c>
+      <c r="X49">
+        <v>-4</v>
+      </c>
+      <c r="Y49">
+        <v>72.5</v>
+      </c>
+      <c r="Z49">
+        <v>2.11</v>
+      </c>
       <c r="AC49" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>1</v>
@@ -4986,22 +5847,25 @@
       <c r="AG49">
         <v>11.07329559326172</v>
       </c>
-      <c r="AH49" t="s">
-        <v>174</v>
+      <c r="AH49">
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301041</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>1.83</v>
@@ -5019,7 +5883,7 @@
         <v>35681.66</v>
       </c>
       <c r="J50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -5060,8 +5924,23 @@
       <c r="W50">
         <v>0.8</v>
       </c>
+      <c r="X50">
+        <v>-3.64</v>
+      </c>
+      <c r="Y50">
+        <v>32.99</v>
+      </c>
+      <c r="Z50">
+        <v>2.2</v>
+      </c>
       <c r="AC50" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5069,22 +5948,25 @@
       <c r="AG50">
         <v>-0.214064285159111</v>
       </c>
-      <c r="AH50" t="s">
-        <v>173</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301052</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-0.78</v>
@@ -5102,7 +5984,7 @@
         <v>37123.49</v>
       </c>
       <c r="J51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -5143,8 +6025,23 @@
       <c r="W51">
         <v>-0.26</v>
       </c>
+      <c r="X51">
+        <v>-3.1</v>
+      </c>
+      <c r="Y51">
+        <v>81.18000000000001</v>
+      </c>
+      <c r="Z51">
+        <v>4.73</v>
+      </c>
       <c r="AC51" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5152,22 +6049,25 @@
       <c r="AG51">
         <v>0.3215343058109283</v>
       </c>
-      <c r="AH51" t="s">
-        <v>173</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301095</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-1.51</v>
@@ -5185,7 +6085,7 @@
         <v>101370.62</v>
       </c>
       <c r="J52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K52">
         <v>19</v>
@@ -5226,8 +6126,23 @@
       <c r="W52">
         <v>-0.09</v>
       </c>
+      <c r="X52">
+        <v>-1.21</v>
+      </c>
+      <c r="Y52">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="Z52">
+        <v>0.34</v>
+      </c>
       <c r="AC52" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5235,22 +6150,25 @@
       <c r="AG52">
         <v>3.473538160324097</v>
       </c>
-      <c r="AH52" t="s">
-        <v>173</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301128</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>11.88</v>
@@ -5268,7 +6186,7 @@
         <v>126645.32</v>
       </c>
       <c r="J53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K53">
         <v>9</v>
@@ -5309,8 +6227,23 @@
       <c r="W53">
         <v>0.5</v>
       </c>
+      <c r="X53">
+        <v>-11.93</v>
+      </c>
+      <c r="Y53">
+        <v>113.99</v>
+      </c>
+      <c r="Z53">
+        <v>3.63</v>
+      </c>
       <c r="AC53" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5318,22 +6251,25 @@
       <c r="AG53">
         <v>4.525749206542969</v>
       </c>
-      <c r="AH53" t="s">
-        <v>173</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301165</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>0.91</v>
@@ -5351,7 +6287,7 @@
         <v>148321.02</v>
       </c>
       <c r="J54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K54">
         <v>10</v>
@@ -5392,8 +6328,23 @@
       <c r="W54">
         <v>-0.42</v>
       </c>
+      <c r="X54">
+        <v>-2.36</v>
+      </c>
+      <c r="Y54">
+        <v>92.12</v>
+      </c>
+      <c r="Z54">
+        <v>1.26</v>
+      </c>
       <c r="AC54" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5401,22 +6352,25 @@
       <c r="AG54">
         <v>13.64829921722412</v>
       </c>
-      <c r="AH54" t="s">
-        <v>173</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301183</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>2.7</v>
@@ -5434,7 +6388,7 @@
         <v>50806.61</v>
       </c>
       <c r="J55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K55">
         <v>5</v>
@@ -5475,8 +6429,23 @@
       <c r="W55">
         <v>1.42</v>
       </c>
+      <c r="X55">
+        <v>2.69</v>
+      </c>
+      <c r="Y55">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="Z55">
+        <v>4.34</v>
+      </c>
       <c r="AC55" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5484,22 +6453,25 @@
       <c r="AG55">
         <v>1.245686650276184</v>
       </c>
-      <c r="AH55" t="s">
-        <v>173</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301202</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>6.38</v>
@@ -5517,7 +6489,7 @@
         <v>43645.32</v>
       </c>
       <c r="J56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5558,8 +6530,23 @@
       <c r="W56">
         <v>0.74</v>
       </c>
+      <c r="X56">
+        <v>-0.61</v>
+      </c>
+      <c r="Y56">
+        <v>55.35</v>
+      </c>
+      <c r="Z56">
+        <v>1.86</v>
+      </c>
       <c r="AC56" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5567,22 +6554,25 @@
       <c r="AG56">
         <v>0.5039380788803101</v>
       </c>
-      <c r="AH56" t="s">
-        <v>173</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301205</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>4.23</v>
@@ -5600,7 +6590,7 @@
         <v>68461.67999999999</v>
       </c>
       <c r="J57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K57">
         <v>4</v>
@@ -5641,8 +6631,23 @@
       <c r="W57">
         <v>0.31</v>
       </c>
+      <c r="X57">
+        <v>4.48</v>
+      </c>
+      <c r="Y57">
+        <v>121.85</v>
+      </c>
+      <c r="Z57">
+        <v>7.83</v>
+      </c>
       <c r="AC57" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5650,22 +6655,25 @@
       <c r="AG57">
         <v>2.993910074234009</v>
       </c>
-      <c r="AH57" t="s">
-        <v>173</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301217</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>2.01</v>
@@ -5683,7 +6691,7 @@
         <v>144200.5</v>
       </c>
       <c r="J58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K58">
         <v>36</v>
@@ -5724,8 +6732,23 @@
       <c r="W58">
         <v>-0.14</v>
       </c>
+      <c r="X58">
+        <v>-4.92</v>
+      </c>
+      <c r="Y58">
+        <v>35.6</v>
+      </c>
+      <c r="Z58">
+        <v>2.92</v>
+      </c>
       <c r="AC58" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5733,22 +6756,25 @@
       <c r="AG58">
         <v>46.79663467407227</v>
       </c>
-      <c r="AH58" t="s">
-        <v>173</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301219</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>0.04</v>
@@ -5766,7 +6792,7 @@
         <v>58155.76</v>
       </c>
       <c r="J59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -5807,8 +6833,23 @@
       <c r="W59">
         <v>0.21</v>
       </c>
+      <c r="X59">
+        <v>-3.52</v>
+      </c>
+      <c r="Y59">
+        <v>68.88</v>
+      </c>
+      <c r="Z59">
+        <v>2.07</v>
+      </c>
       <c r="AC59" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5816,22 +6857,25 @@
       <c r="AG59">
         <v>5.828930377960205</v>
       </c>
-      <c r="AH59" t="s">
-        <v>173</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301345</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>-0.92</v>
@@ -5849,7 +6893,7 @@
         <v>32972.97</v>
       </c>
       <c r="J60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -5890,8 +6934,23 @@
       <c r="W60">
         <v>-0.25</v>
       </c>
+      <c r="X60">
+        <v>-1</v>
+      </c>
+      <c r="Y60">
+        <v>197</v>
+      </c>
+      <c r="Z60">
+        <v>2.07</v>
+      </c>
       <c r="AC60" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5899,22 +6958,25 @@
       <c r="AG60">
         <v>1.731345295906067</v>
       </c>
-      <c r="AH60" t="s">
-        <v>173</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301377</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>6.19</v>
@@ -5932,7 +6994,7 @@
         <v>72921.57000000001</v>
       </c>
       <c r="J61" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K61">
         <v>11</v>
@@ -5973,8 +7035,23 @@
       <c r="W61">
         <v>-0.11</v>
       </c>
+      <c r="X61">
+        <v>2.74</v>
+      </c>
+      <c r="Y61">
+        <v>77.09</v>
+      </c>
+      <c r="Z61">
+        <v>6.67</v>
+      </c>
       <c r="AC61" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5982,22 +7059,25 @@
       <c r="AG61">
         <v>4.947903156280518</v>
       </c>
-      <c r="AH61" t="s">
-        <v>173</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301392</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-1.27</v>
@@ -6015,7 +7095,7 @@
         <v>51689.51</v>
       </c>
       <c r="J62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K62">
         <v>5</v>
@@ -6056,8 +7136,23 @@
       <c r="W62">
         <v>0</v>
       </c>
+      <c r="X62">
+        <v>-3.94</v>
+      </c>
+      <c r="Y62">
+        <v>185.99</v>
+      </c>
+      <c r="Z62">
+        <v>-0.96</v>
+      </c>
       <c r="AC62" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6065,22 +7160,25 @@
       <c r="AG62">
         <v>80.41738891601562</v>
       </c>
-      <c r="AH62" t="s">
-        <v>173</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301413</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>10.77</v>
@@ -6098,7 +7196,7 @@
         <v>57330.95</v>
       </c>
       <c r="J63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6139,8 +7237,23 @@
       <c r="W63">
         <v>0.3</v>
       </c>
+      <c r="X63">
+        <v>-3.3</v>
+      </c>
+      <c r="Y63">
+        <v>126</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
       <c r="AC63" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6148,22 +7261,25 @@
       <c r="AG63">
         <v>2.065016984939575</v>
       </c>
-      <c r="AH63" t="s">
-        <v>173</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301486</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>1.86</v>
@@ -6181,7 +7297,7 @@
         <v>76251.50999999999</v>
       </c>
       <c r="J64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K64">
         <v>9</v>
@@ -6222,8 +7338,23 @@
       <c r="W64">
         <v>-0.45</v>
       </c>
+      <c r="X64">
+        <v>-3.44</v>
+      </c>
+      <c r="Y64">
+        <v>96.38</v>
+      </c>
+      <c r="Z64">
+        <v>3.07</v>
+      </c>
       <c r="AC64" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6231,22 +7362,25 @@
       <c r="AG64">
         <v>1.378461718559265</v>
       </c>
-      <c r="AH64" t="s">
-        <v>173</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301489</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-4.56</v>
@@ -6264,7 +7398,7 @@
         <v>78924.78999999999</v>
       </c>
       <c r="J65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K65">
         <v>18</v>
@@ -6305,8 +7439,23 @@
       <c r="W65">
         <v>0.17</v>
       </c>
+      <c r="X65">
+        <v>-8.289999999999999</v>
+      </c>
+      <c r="Y65">
+        <v>185</v>
+      </c>
+      <c r="Z65">
+        <v>0.4</v>
+      </c>
       <c r="AC65" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6314,22 +7463,25 @@
       <c r="AG65">
         <v>7.180623054504395</v>
       </c>
-      <c r="AH65" t="s">
-        <v>173</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301526</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>1.54</v>
@@ -6347,7 +7499,7 @@
         <v>114691.83</v>
       </c>
       <c r="J66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K66">
         <v>13</v>
@@ -6388,8 +7540,23 @@
       <c r="W66">
         <v>-0.27</v>
       </c>
+      <c r="X66">
+        <v>2.54</v>
+      </c>
+      <c r="Y66">
+        <v>7.56</v>
+      </c>
+      <c r="Z66">
+        <v>14.89</v>
+      </c>
       <c r="AC66" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6397,22 +7564,25 @@
       <c r="AG66">
         <v>0.9423349499702454</v>
       </c>
-      <c r="AH66" t="s">
-        <v>173</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301617</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>7.39</v>
@@ -6430,7 +7600,7 @@
         <v>46576.87</v>
       </c>
       <c r="J67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -6471,8 +7641,23 @@
       <c r="W67">
         <v>-0.06</v>
       </c>
+      <c r="X67">
+        <v>1.37</v>
+      </c>
+      <c r="Y67">
+        <v>56</v>
+      </c>
+      <c r="Z67">
+        <v>7.07</v>
+      </c>
       <c r="AC67" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6480,22 +7665,25 @@
       <c r="AG67">
         <v>3.102428913116455</v>
       </c>
-      <c r="AH67" t="s">
-        <v>173</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688035</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-2.23</v>
@@ -6513,7 +7701,7 @@
         <v>32711.25</v>
       </c>
       <c r="J68" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K68">
         <v>6</v>
@@ -6554,8 +7742,23 @@
       <c r="W68">
         <v>-0.18</v>
       </c>
+      <c r="X68">
+        <v>-3.17</v>
+      </c>
+      <c r="Y68">
+        <v>57.5</v>
+      </c>
+      <c r="Z68">
+        <v>0.95</v>
+      </c>
       <c r="AC68" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6563,22 +7766,25 @@
       <c r="AG68">
         <v>-1.025373101234436</v>
       </c>
-      <c r="AH68" t="s">
-        <v>173</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688048</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>1.39</v>
@@ -6596,7 +7802,7 @@
         <v>75815.64999999999</v>
       </c>
       <c r="J69" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K69">
         <v>16</v>
@@ -6637,8 +7843,23 @@
       <c r="W69">
         <v>-0.3</v>
       </c>
+      <c r="X69">
+        <v>-7.29</v>
+      </c>
+      <c r="Y69">
+        <v>80.65000000000001</v>
+      </c>
+      <c r="Z69">
+        <v>0.25</v>
+      </c>
       <c r="AC69" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6646,22 +7867,25 @@
       <c r="AG69">
         <v>5.681719779968262</v>
       </c>
-      <c r="AH69" t="s">
-        <v>173</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688049</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>2.37</v>
@@ -6679,7 +7903,7 @@
         <v>71886.78999999999</v>
       </c>
       <c r="J70" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K70">
         <v>8</v>
@@ -6720,8 +7944,23 @@
       <c r="W70">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X70">
+        <v>-2.83</v>
+      </c>
+      <c r="Y70">
+        <v>58.9</v>
+      </c>
+      <c r="Z70">
+        <v>0.86</v>
+      </c>
       <c r="AC70" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6729,22 +7968,25 @@
       <c r="AG70">
         <v>0.3230821788311005</v>
       </c>
-      <c r="AH70" t="s">
-        <v>173</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688066</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>19.51</v>
@@ -6762,7 +8004,7 @@
         <v>124904.96</v>
       </c>
       <c r="J71" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -6803,8 +8045,23 @@
       <c r="W71">
         <v>1.59</v>
       </c>
+      <c r="X71">
+        <v>14.45</v>
+      </c>
+      <c r="Y71">
+        <v>37.99</v>
+      </c>
+      <c r="Z71">
+        <v>19.28</v>
+      </c>
       <c r="AC71" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6812,22 +8069,25 @@
       <c r="AG71">
         <v>5.929577827453613</v>
       </c>
-      <c r="AH71" t="s">
-        <v>173</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688098</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>6.75</v>
@@ -6845,7 +8105,7 @@
         <v>38255.44</v>
       </c>
       <c r="J72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -6886,8 +8146,23 @@
       <c r="W72">
         <v>0.12</v>
       </c>
+      <c r="X72">
+        <v>-8.41</v>
+      </c>
+      <c r="Y72">
+        <v>14.57</v>
+      </c>
+      <c r="Z72">
+        <v>7.13</v>
+      </c>
       <c r="AC72" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6895,22 +8170,25 @@
       <c r="AG72">
         <v>1.866032123565674</v>
       </c>
-      <c r="AH72" t="s">
-        <v>173</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688110</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>8.49</v>
@@ -6928,7 +8206,7 @@
         <v>319118.34</v>
       </c>
       <c r="J73" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -6969,8 +8247,23 @@
       <c r="W73">
         <v>-0.06</v>
       </c>
+      <c r="X73">
+        <v>1.03</v>
+      </c>
+      <c r="Y73">
+        <v>104.45</v>
+      </c>
+      <c r="Z73">
+        <v>4.82</v>
+      </c>
       <c r="AC73" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6978,22 +8271,25 @@
       <c r="AG73">
         <v>26.16340827941895</v>
       </c>
-      <c r="AH73" t="s">
-        <v>173</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688146</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>3.74</v>
@@ -7011,7 +8307,7 @@
         <v>57956.86</v>
       </c>
       <c r="J74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K74">
         <v>9</v>
@@ -7052,8 +8348,23 @@
       <c r="W74">
         <v>0.23</v>
       </c>
+      <c r="X74">
+        <v>1</v>
+      </c>
+      <c r="Y74">
+        <v>43.19</v>
+      </c>
+      <c r="Z74">
+        <v>0.44</v>
+      </c>
       <c r="AC74" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7061,22 +8372,25 @@
       <c r="AG74">
         <v>19.86694145202637</v>
       </c>
-      <c r="AH74" t="s">
-        <v>173</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688147</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>0.54</v>
@@ -7094,7 +8408,7 @@
         <v>33071.47</v>
       </c>
       <c r="J75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K75">
         <v>6</v>
@@ -7135,8 +8449,23 @@
       <c r="W75">
         <v>0.41</v>
       </c>
+      <c r="X75">
+        <v>2.08</v>
+      </c>
+      <c r="Y75">
+        <v>40.46</v>
+      </c>
+      <c r="Z75">
+        <v>3.4</v>
+      </c>
       <c r="AC75" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7144,22 +8473,25 @@
       <c r="AG75">
         <v>0.5984532237052917</v>
       </c>
-      <c r="AH75" t="s">
-        <v>173</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>688167</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>7.69</v>
@@ -7177,7 +8509,7 @@
         <v>100789.66</v>
       </c>
       <c r="J76" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K76">
         <v>14</v>
@@ -7218,8 +8550,23 @@
       <c r="W76">
         <v>0.48</v>
       </c>
+      <c r="X76">
+        <v>-4.96</v>
+      </c>
+      <c r="Y76">
+        <v>138.87</v>
+      </c>
+      <c r="Z76">
+        <v>-0.8100000000000001</v>
+      </c>
       <c r="AC76" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7227,22 +8574,25 @@
       <c r="AG76">
         <v>-0.4002154767513275</v>
       </c>
-      <c r="AH76" t="s">
-        <v>173</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688181</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>9.82</v>
@@ -7260,7 +8610,7 @@
         <v>64535.36</v>
       </c>
       <c r="J77" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -7301,8 +8651,23 @@
       <c r="W77">
         <v>-0.1</v>
       </c>
+      <c r="X77">
+        <v>-0.99</v>
+      </c>
+      <c r="Y77">
+        <v>45.24</v>
+      </c>
+      <c r="Z77">
+        <v>2.17</v>
+      </c>
       <c r="AC77" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7310,22 +8675,25 @@
       <c r="AG77">
         <v>7.225579738616943</v>
       </c>
-      <c r="AH77" t="s">
-        <v>173</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688195</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>2.41</v>
@@ -7343,7 +8711,7 @@
         <v>69882.59</v>
       </c>
       <c r="J78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K78">
         <v>6</v>
@@ -7384,8 +8752,23 @@
       <c r="W78">
         <v>0.72</v>
       </c>
+      <c r="X78">
+        <v>-4.22</v>
+      </c>
+      <c r="Y78">
+        <v>63.93</v>
+      </c>
+      <c r="Z78">
+        <v>0.41</v>
+      </c>
       <c r="AC78" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7393,22 +8776,25 @@
       <c r="AG78">
         <v>-0.2603881061077118</v>
       </c>
-      <c r="AH78" t="s">
-        <v>173</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688205</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>11.68</v>
@@ -7426,7 +8812,7 @@
         <v>186169.84</v>
       </c>
       <c r="J79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7467,8 +8853,23 @@
       <c r="W79">
         <v>-0.39</v>
       </c>
+      <c r="X79">
+        <v>-4.54</v>
+      </c>
+      <c r="Y79">
+        <v>103.5</v>
+      </c>
+      <c r="Z79">
+        <v>2.49</v>
+      </c>
       <c r="AC79" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7476,22 +8877,25 @@
       <c r="AG79">
         <v>-5.169960975646973</v>
       </c>
-      <c r="AH79" t="s">
-        <v>173</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688270</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>2.86</v>
@@ -7509,7 +8913,7 @@
         <v>76231.72</v>
       </c>
       <c r="J80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K80">
         <v>9</v>
@@ -7550,8 +8954,23 @@
       <c r="W80">
         <v>0.01</v>
       </c>
+      <c r="X80">
+        <v>-2.58</v>
+      </c>
+      <c r="Y80">
+        <v>74</v>
+      </c>
+      <c r="Z80">
+        <v>5.41</v>
+      </c>
       <c r="AC80" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7559,22 +8978,25 @@
       <c r="AG80">
         <v>7.055573463439941</v>
       </c>
-      <c r="AH80" t="s">
-        <v>173</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688313</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>9.359999999999999</v>
@@ -7592,7 +9014,7 @@
         <v>220556.72</v>
       </c>
       <c r="J81" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K81">
         <v>10</v>
@@ -7633,8 +9055,23 @@
       <c r="W81">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X81">
+        <v>-1.34</v>
+      </c>
+      <c r="Y81">
+        <v>74.3</v>
+      </c>
+      <c r="Z81">
+        <v>4.91</v>
+      </c>
       <c r="AC81" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7642,22 +9079,25 @@
       <c r="AG81">
         <v>2.950214147567749</v>
       </c>
-      <c r="AH81" t="s">
-        <v>173</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688372</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>-2.65</v>
@@ -7675,7 +9115,7 @@
         <v>92231.87</v>
       </c>
       <c r="J82" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K82">
         <v>3</v>
@@ -7716,8 +9156,23 @@
       <c r="W82">
         <v>-1.37</v>
       </c>
+      <c r="X82">
+        <v>0.25</v>
+      </c>
+      <c r="Y82">
+        <v>80.86</v>
+      </c>
+      <c r="Z82">
+        <v>3.03</v>
+      </c>
       <c r="AC82" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7725,22 +9180,25 @@
       <c r="AG82">
         <v>3.480954647064209</v>
       </c>
-      <c r="AH82" t="s">
-        <v>173</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688489</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>-2.52</v>
@@ -7758,7 +9216,7 @@
         <v>36507.07</v>
       </c>
       <c r="J83" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -7799,8 +9257,23 @@
       <c r="W83">
         <v>-0.61</v>
       </c>
+      <c r="X83">
+        <v>-6</v>
+      </c>
+      <c r="Y83">
+        <v>56.18</v>
+      </c>
+      <c r="Z83">
+        <v>5.13</v>
+      </c>
       <c r="AC83" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7808,22 +9281,25 @@
       <c r="AG83">
         <v>22.71031761169434</v>
       </c>
-      <c r="AH83" t="s">
-        <v>173</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688502</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>0.27</v>
@@ -7841,7 +9317,7 @@
         <v>50888.11</v>
       </c>
       <c r="J84" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K84">
         <v>21</v>
@@ -7882,8 +9358,23 @@
       <c r="W84">
         <v>-0.22</v>
       </c>
+      <c r="X84">
+        <v>-5.33</v>
+      </c>
+      <c r="Y84">
+        <v>446</v>
+      </c>
+      <c r="Z84">
+        <v>1.56</v>
+      </c>
       <c r="AC84" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7891,22 +9382,25 @@
       <c r="AG84">
         <v>2.956942796707153</v>
       </c>
-      <c r="AH84" t="s">
-        <v>173</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688507</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>9.59</v>
@@ -7924,7 +9418,7 @@
         <v>70323.74000000001</v>
       </c>
       <c r="J85" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -7965,8 +9459,23 @@
       <c r="W85">
         <v>-0.17</v>
       </c>
+      <c r="X85">
+        <v>-6.21</v>
+      </c>
+      <c r="Y85">
+        <v>110.5</v>
+      </c>
+      <c r="Z85">
+        <v>-3.04</v>
+      </c>
       <c r="AC85" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -7974,22 +9483,25 @@
       <c r="AG85">
         <v>4.79587459564209</v>
       </c>
-      <c r="AH85" t="s">
-        <v>173</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688508</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>-0.92</v>
@@ -8007,7 +9519,7 @@
         <v>54847.1</v>
       </c>
       <c r="J86" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K86">
         <v>4</v>
@@ -8048,8 +9560,23 @@
       <c r="W86">
         <v>-0.14</v>
       </c>
+      <c r="X86">
+        <v>-1.31</v>
+      </c>
+      <c r="Y86">
+        <v>65.88</v>
+      </c>
+      <c r="Z86">
+        <v>0.08</v>
+      </c>
       <c r="AC86" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8057,22 +9584,25 @@
       <c r="AG86">
         <v>4.591840744018555</v>
       </c>
-      <c r="AH86" t="s">
-        <v>173</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688519</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>-1.35</v>
@@ -8090,7 +9620,7 @@
         <v>79116.42</v>
       </c>
       <c r="J87" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K87">
         <v>6</v>
@@ -8131,8 +9661,23 @@
       <c r="W87">
         <v>0.24</v>
       </c>
+      <c r="X87">
+        <v>-3.91</v>
+      </c>
+      <c r="Y87">
+        <v>82</v>
+      </c>
+      <c r="Z87">
+        <v>9.73</v>
+      </c>
       <c r="AC87" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>1</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8140,22 +9685,25 @@
       <c r="AG87">
         <v>-0.3752236366271973</v>
       </c>
-      <c r="AH87" t="s">
-        <v>173</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688521</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>2.06</v>
@@ -8173,7 +9721,7 @@
         <v>581580.75</v>
       </c>
       <c r="J88" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K88">
         <v>4</v>
@@ -8214,8 +9762,23 @@
       <c r="W88">
         <v>-0.26</v>
       </c>
+      <c r="X88">
+        <v>-9.33</v>
+      </c>
+      <c r="Y88">
+        <v>149.99</v>
+      </c>
+      <c r="Z88">
+        <v>-1.91</v>
+      </c>
       <c r="AC88" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8223,22 +9786,25 @@
       <c r="AG88">
         <v>-1.87982165813446</v>
       </c>
-      <c r="AH88" t="s">
-        <v>173</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688584</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>-1.63</v>
@@ -8256,7 +9822,7 @@
         <v>38527.67</v>
       </c>
       <c r="J89" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K89">
         <v>9</v>
@@ -8297,8 +9863,23 @@
       <c r="W89">
         <v>-0.26</v>
       </c>
+      <c r="X89">
+        <v>0.64</v>
+      </c>
+      <c r="Y89">
+        <v>27.34</v>
+      </c>
+      <c r="Z89">
+        <v>2.67</v>
+      </c>
       <c r="AC89" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8306,22 +9887,25 @@
       <c r="AG89">
         <v>-5.828586101531982</v>
       </c>
-      <c r="AH89" t="s">
-        <v>173</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>688629</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>3.25</v>
@@ -8339,7 +9923,7 @@
         <v>148612.51</v>
       </c>
       <c r="J90" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -8380,8 +9964,23 @@
       <c r="W90">
         <v>0.4</v>
       </c>
+      <c r="X90">
+        <v>2.7</v>
+      </c>
+      <c r="Y90">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="Z90">
+        <v>25.55</v>
+      </c>
       <c r="AC90" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>1</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8389,22 +9988,25 @@
       <c r="AG90">
         <v>33.96664810180664</v>
       </c>
-      <c r="AH90" t="s">
-        <v>173</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>688709</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>-2.17</v>
@@ -8422,7 +10024,7 @@
         <v>100980.23</v>
       </c>
       <c r="J91" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -8463,8 +10065,23 @@
       <c r="W91">
         <v>-0.45</v>
       </c>
+      <c r="X91">
+        <v>-5.03</v>
+      </c>
+      <c r="Y91">
+        <v>46</v>
+      </c>
+      <c r="Z91">
+        <v>-0.04</v>
+      </c>
       <c r="AC91" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8472,22 +10089,25 @@
       <c r="AG91">
         <v>76.79777526855469</v>
       </c>
-      <c r="AH91" t="s">
-        <v>173</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688798</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>0.6899999999999999</v>
@@ -8505,7 +10125,7 @@
         <v>67472.88</v>
       </c>
       <c r="J92" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K92">
         <v>4</v>
@@ -8546,8 +10166,23 @@
       <c r="W92">
         <v>-0.19</v>
       </c>
+      <c r="X92">
+        <v>0.06</v>
+      </c>
+      <c r="Y92">
+        <v>97.84999999999999</v>
+      </c>
+      <c r="Z92">
+        <v>3.58</v>
+      </c>
       <c r="AC92" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8555,8 +10190,11 @@
       <c r="AG92">
         <v>2.684046983718872</v>
       </c>
-      <c r="AH92" t="s">
-        <v>173</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
